--- a/Projeto 2/tweets_certos_3.0.xlsx
+++ b/Projeto 2/tweets_certos_3.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\Ciencia-dos-Dados1\Ciencia-dos-Dados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gustavo/Documents/GitHub/Ciencia-dos-Dados/Projeto 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9300EA-4479-4DB9-93E5-ABBEC86BFB5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E11E464-4B25-B841-A307-5E74E550AC37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24220" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1737,16 +1737,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B303"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="100.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="100.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>201</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>202</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>203</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>204</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>205</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>206</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>207</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>208</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>209</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>210</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>211</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>207</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>212</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>213</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>214</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>215</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>216</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>217</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>218</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>219</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>220</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>12</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>221</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>222</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>223</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>224</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>225</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>226</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>227</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>74</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>228</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>229</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>230</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>231</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>232</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>233</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>234</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>235</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>236</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>237</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>226</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>238</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>239</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>240</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>241</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>242</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>16</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>226</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>243</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>2</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>3</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>5</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>6</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>17</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>18</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>19</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>22</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>23</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>24</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>26</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>13</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>27</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>28</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>29</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>30</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>31</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>32</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>33</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>34</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>35</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>13</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>36</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>37</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>12</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>13</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>39</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>40</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>41</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>42</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>41</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>43</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>44</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>46</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>47</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>48</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>49</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>50</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
         <v>51</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
         <v>52</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
         <v>53</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
         <v>54</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
         <v>55</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>23</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>56</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>57</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>58</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>13</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>59</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>60</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>61</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>62</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>63</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>64</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>13</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>65</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>23</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>23</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>66</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>67</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>68</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>69</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>70</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>23</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>71</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>72</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>71</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>73</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>74</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>75</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>76</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>77</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>74</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>78</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>13</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>79</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>80</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>81</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>23</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>82</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>35</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>83</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>84</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>85</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>86</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>87</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>35</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>51</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>88</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>89</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>90</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>91</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>92</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>93</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>35</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>94</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>95</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>96</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>97</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>98</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>99</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>100</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>101</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>34</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>102</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>103</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>104</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>105</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>106</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>107</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>108</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>51</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>109</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>110</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>111</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>112</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>113</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>114</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>115</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>116</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>117</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>118</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>51</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>119</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>120</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>121</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>122</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>123</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>71</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>124</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>125</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>23</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>126</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>13</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>127</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>128</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>51</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>129</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>130</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>131</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>132</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>133</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>134</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>51</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>13</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>135</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>51</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>136</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>137</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>138</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>139</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>140</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>141</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>142</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>23</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>143</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>144</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>109</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>145</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>146</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>147</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>148</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>149</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>12</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>150</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>151</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>13</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>152</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>153</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>154</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>13</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>155</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
         <v>156</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
         <v>157</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
         <v>158</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="4" t="s">
         <v>159</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="4" t="s">
         <v>160</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="4" t="s">
         <v>161</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="4" t="s">
         <v>35</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="4" t="s">
         <v>162</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="4" t="s">
         <v>51</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
         <v>163</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="4" t="s">
         <v>164</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="4" t="s">
         <v>165</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="4" t="s">
         <v>166</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="4" t="s">
         <v>35</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="4" t="s">
         <v>167</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A261" s="4" t="s">
         <v>23</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
         <v>168</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
         <v>23</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A265" s="4" t="s">
         <v>169</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="4" t="s">
         <v>170</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="4" t="s">
         <v>171</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="4" t="s">
         <v>172</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="4" t="s">
         <v>173</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="4" t="s">
         <v>174</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
         <v>175</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="4" t="s">
         <v>176</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="4" t="s">
         <v>177</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A274" s="4" t="s">
         <v>178</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="4" t="s">
         <v>179</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="4" t="s">
         <v>23</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="4" t="s">
         <v>12</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
         <v>180</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
         <v>181</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
         <v>182</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="4" t="s">
         <v>183</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A282" s="4" t="s">
         <v>184</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A283" s="4" t="s">
         <v>185</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="4" t="s">
         <v>186</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="4" t="s">
         <v>23</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A286" s="4" t="s">
         <v>51</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
         <v>187</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="4" t="s">
         <v>188</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="4" t="s">
         <v>189</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="4" t="s">
         <v>190</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="4" t="s">
         <v>191</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="4" t="s">
         <v>192</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="4" t="s">
         <v>193</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
         <v>194</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
         <v>195</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
         <v>196</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A297" s="4" t="s">
         <v>197</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A298" s="4" t="s">
         <v>81</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="4" t="s">
         <v>198</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="4" t="s">
         <v>199</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="4" t="s">
         <v>200</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="4" t="s">
         <v>201</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
         <v>202</v>
       </c>
@@ -4180,16 +4180,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="106.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="106.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>246</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>247</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>187</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>248</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>249</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>250</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>251</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>252</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>253</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>254</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>255</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>256</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>257</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>258</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>259</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>261</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>262</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>263</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>264</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>265</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>266</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>267</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>268</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>269</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>398</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>270</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>271</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>272</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>273</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>274</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>275</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>276</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>277</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>278</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>279</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>280</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>281</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>282</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>283</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>284</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>285</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>286</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>23</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>287</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>288</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>399</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>289</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>290</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>291</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>292</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>293</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>294</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>295</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>296</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>297</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>298</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>299</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>300</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>51</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>122</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>301</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>51</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>302</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>303</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>304</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>305</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>306</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>23</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>307</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>308</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>51</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>309</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>23</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>310</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>312</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>313</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>314</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>315</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>316</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>317</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>318</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>319</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>320</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>321</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>322</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>323</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>324</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>325</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>35</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>71</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>326</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>327</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>328</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>51</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>329</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>330</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>331</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>332</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>333</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>72</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>334</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>335</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>336</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>23</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>337</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>338</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>74</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>339</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>71</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>340</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>341</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>342</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>343</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>51</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>344</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>345</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>346</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>347</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>13</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>348</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>349</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>109</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>74</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>350</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>351</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>352</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>353</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>354</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>355</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>356</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>357</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>358</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>359</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>360</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>361</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>13</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>362</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>363</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>194</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>364</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>365</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>71</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>366</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>23</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>367</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>368</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>369</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>370</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>371</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>109</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>372</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>373</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>374</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>138</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>375</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>71</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>226</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>376</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>377</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>378</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>379</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>23</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>380</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>381</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>382</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>383</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>384</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>385</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>109</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>386</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>387</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>388</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>389</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>390</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>34</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>391</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>392</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>393</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>394</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>395</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>396</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>397</v>
       </c>
